--- a/documents/tonghop.xlsx
+++ b/documents/tonghop.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5184" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>TOTAL PAGE LIKES</t>
   </si>
@@ -213,6 +216,111 @@
   </si>
   <si>
     <t>Post lấy riêng từng cái đối với 2 metric này</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'page_fans_gender_age', 'period': 'day', 'values': [{'value': {'F.13-17': 1, 'F.18-24': 293, 'F.25-34': 420, 'F.35-44': 134, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 254, 'M.25-34': 749, 'M.35-44': 297, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-12T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 293, 'F.25-34': 420, 'F.35-44': 134, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 252, 'M.25-34': 751, 'M.35-44': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">297, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-13T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 293, 'F.25-34': 420, 'F.35-44': 135, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 253, 'M.25-34': 751, 'M.35-44': 297, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-14T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 299, 'F.25-34': 420, 'F.35-44': 135, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 260, 'M.25-34': 758, 'M.35-44': 300, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-15T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 299, 'F.25-34': 420, 'F.35-44': 135, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 261, 'M.25-34': 758, 'M.35-44': 300, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-16T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 298, 'F.25-34': 420, 'F.35-44': 135, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 261, 'M.25-34': 759, 'M.35-44': 300, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-17T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 298, 'F.25-34': 421, 'F.35-44': 135, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 260, 'M.25-34': 758, 'M.35-44': 301, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-18T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 298, 'F.25-34': 421, 'F.35-44': 135, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 757, 'M.35-44': 301, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-19T08:00:00+0000'}, {'value': {'F.13-17': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 'F.18-24': 298, 'F.25-34': 421, 'F.35-44': 135, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 757, 'M.35-44': 300, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-20T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 298, 'F.25-34': 421, 'F.35-44': 135, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 758, 'M.35-44': 300, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-21T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 298, 'F.25-34': 420, 'F.35-44': 138, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 757, 'M.35-44': 300, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-22T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 296, 'F.25-34': 422, 'F.35-44': 138, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 757, 'M.35-44': 300, 'M.45-54': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-23T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 295, 'F.25-34': 422, 'F.35-44': 138, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 758, 'M.35-44': 300, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 'U.35-44': 3}, 'end_time': '2019-01-24T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 294, 'F.25-34': 422, 'F.35-44': 138, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 759, 'M.35-44': 300, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-25T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 294, 'F.25-34': 423, 'F.35-44': 138, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 759, 'M.35-44': 300, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-26T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 294, 'F.25-34': 423, 'F.35-44': 138, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 760, 'M.35-44': 301, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-27T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 294, 'F.25-34': 423, 'F.35-44': 138, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 760, 'M.35-44': 301, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-28T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 294, 'F.25-34': 422, 'F.35-44': 139, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 760, 'M.35-44': 301, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-29T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 295, 'F.25-34': 422, 'F.35-44': 138, 'F.45-54': 30, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 760, 'M.35-44': 302, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-30T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 295, 'F.25-34': 423, 'F.35-44': 138, 'F.45-54': 30, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 760, 'M.35-44': 302, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-31T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 295, 'F.25-34': 422, 'F.35-44': 139, 'F.45-54': 30, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 262, 'M.25-34': 760, 'M.35-44': 302, 'M.45-54': 56, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-02-01T08:00:00+0000'}], 'title': 'Lifetime Likes by Gender and Age', 'description': 'Lifetime: Aggregated demographic data about the people who like your Page based on the age and gender information they provide in their user </t>
+  </si>
+  <si>
+    <t>profiles. (Unique Users)', 'id': '217328504988428/insights/page_fans_gender_age/day'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'like': 22}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3600585369996041/insights/post_activity_by_action_type/lifetime'}]       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 6, 'like': 329, 'comment': 88}}], 'title': 'Lifetime Post Stories by action type', </t>
+  </si>
+  <si>
+    <t>'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3599811566740088/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 14, 'like': 377, 'comment': 10}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3599096616811583/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 6, 'like': 99, 'comment': 10}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3597125610342017/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 3, 'like': 81, 'comment': 34}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3594595460595032/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'like': 12}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3594273160627262/insights/post_activity_by_action_type/lifetime'}]       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 5, 'like': 138, 'comment': 13}}], 'title': 'Lifetime Post Stories by action type', </t>
+  </si>
+  <si>
+    <t>'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3592120210842557/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'like': 10, 'comment': 2}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3586196498101595/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 40, 'like': 99, 'comment': 15}}], 'title': 'Lifetime Post Stories by action type', </t>
+  </si>
+  <si>
+    <t>'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3586050371449541/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 11, 'like': 40, 'comment': 1}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3583281675059744/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 1, 'like': 56, 'comment': 4}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3582160205171891/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 11, 'like': 74, 'comment': 1}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3580561541998424/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'like': 11}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3580356865352225/insights/post_activity_by_action_type/lifetime'}]       </t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 2, 'like': 98, 'comment': 4}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3580043742050204/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 10, 'like': 110, 'comment': 51}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3577913692263209/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'like': 19}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3577797232274855/insights/post_activity_by_action_type/lifetime'}]       </t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 21, 'like': 56, 'comment': 1}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3577070589014186/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 11, 'like': 396, 'comment': 110}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3577013945686517/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 5, 'like': 241, 'comment': 9}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3576811629040082/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 9, 'like': 189, 'comment': 1}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3574531009268144/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 54, 'like': 78, 'comment': 1}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3572759122778666/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'like': 34}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3571791206208791/insights/post_activity_by_action_type/lifetime'}]       </t>
+  </si>
+  <si>
+    <t>[{'name': 'post_activity_by_action_type', 'period': 'lifetime', 'values': [{'value': {'share': 28, 'like': 196, 'comment': 50}}], 'title': 'Lifetime Post Stories by action type', 'description': 'Lifetime: The number of stories created about your Page post, by action type. (Total Count)', 'id': '217328504988428_3570275709693674/insights/post_activity_by_action_type/lifetime'}]</t>
+  </si>
+  <si>
+    <t>+ Lấy và xử lí dữ liệu từ facebook</t>
+  </si>
+  <si>
+    <t>+ Thực hiện tính toán và thiết kế giao diện cho report</t>
+  </si>
+  <si>
+    <t>'+ dữ liệu phức tạp cần xử lý trước khi lưu vào database</t>
   </si>
 </sst>
 </file>
@@ -500,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -508,18 +616,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -528,9 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -565,12 +664,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,27 +688,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -630,25 +705,62 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,6 +776,1194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2753360" y="8290560"/>
+          <a:ext cx="1930400" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>post_activity_by_action_type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>post_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>share</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>like</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>comment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end_time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>title</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5628640" y="8097520"/>
+          <a:ext cx="1930400" cy="1402080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>page_insight</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end_time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>title</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>description</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2113280</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7437120" y="9966960"/>
+          <a:ext cx="1930400" cy="4196080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>page_fans_gender_age</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end_time</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>title</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F.13-17</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F.18-24</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F.25-34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F.35-44</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F.45-54</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F.55-64</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F.65+</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M.13-17</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M.18-24</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M.25-34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M.35-44</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M.45-54</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M.55-64</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>M.65+</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U.18-24</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U.25-34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U.35-44</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1818640</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2611120" y="10383520"/>
+          <a:ext cx="853440" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>post</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>post_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>link</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>873760</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4917440" y="10637520"/>
+          <a:ext cx="731520" cy="782320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1391920</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3037840" y="9103360"/>
+          <a:ext cx="995680" cy="1280160"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22959"/>
+            <a:gd name="adj2" fmla="val 81746"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1818640</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3464560" y="10993120"/>
+          <a:ext cx="802640" cy="35560"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Elbow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4632960" y="8798560"/>
+          <a:ext cx="345440" cy="1838960"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>873760</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4998720" y="11028680"/>
+          <a:ext cx="1788160" cy="1036320"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,47 +2229,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="24" style="9" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="33" customWidth="1"/>
     <col min="4" max="4" width="84.5546875" customWidth="1"/>
     <col min="5" max="5" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -977,105 +2277,105 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1084,63 +2384,63 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="3" t="str">
         <f>B3</f>
         <v>page_fans</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1149,16 +2449,16 @@
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1167,279 +2467,325 @@
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="54"/>
+      <c r="E21" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="51" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="59"/>
-    </row>
-    <row r="24" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="51" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="59"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="59"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="42" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="59"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="42" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="59"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="42" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="59"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="38"/>
+      <c r="B29" s="33"/>
       <c r="C29"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="33"/>
       <c r="C30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="38"/>
+      <c r="B31" s="33"/>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="38"/>
+      <c r="B32" s="33"/>
       <c r="C32"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="33"/>
       <c r="C33"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="33"/>
       <c r="C34"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="9" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="45"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="43"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="46"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="46" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1455,5 +2801,196 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/tonghop.xlsx
+++ b/documents/tonghop.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5184" windowHeight="8172"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="5184" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>TOTAL PAGE LIKES</t>
   </si>
@@ -137,9 +136,6 @@
     <t>post_activity_by_action_type</t>
   </si>
   <si>
-    <t>Giá trị của ngày cuối cùng tại thời điểm lấy dữ liệu</t>
-  </si>
-  <si>
     <t>Giá trị của ngày cuối cùng trong Tháng - tương ứng với giá trị Unique Reach  của toàn bộ 1 tháng đó</t>
   </si>
   <si>
@@ -149,15 +145,6 @@
     <t>SUM (giá trị ngày đầu tiên của tháng hoặc năm; giá trị ngày cuối cùng của tháng hoặc năm)</t>
   </si>
   <si>
-    <t>(page_engaged_users/page_impressions_unique)*100%</t>
-  </si>
-  <si>
-    <t>SUM(page_consumptions,page_post_engagements)</t>
-  </si>
-  <si>
-    <t>(page_video_views/page_impressions_unique)*100%</t>
-  </si>
-  <si>
     <t>Đã lấy</t>
   </si>
   <si>
@@ -170,9 +157,6 @@
     <t>METRIC</t>
   </si>
   <si>
-    <t>CÔNG THỨC</t>
-  </si>
-  <si>
     <t>TÌNH TRẠNG</t>
   </si>
   <si>
@@ -321,13 +305,52 @@
   </si>
   <si>
     <t>'+ dữ liệu phức tạp cần xử lý trước khi lưu vào database</t>
+  </si>
+  <si>
+    <t>CÔNG THỨC CHÍNH</t>
+  </si>
+  <si>
+    <t>CÔNG THỨC PHỤ TÍNH PHẦN TRĂM</t>
+  </si>
+  <si>
+    <t>% tăng giảm giữa giá trị tháng này với tháng trước, nếu cả năm thì năm này với năm trước</t>
+  </si>
+  <si>
+    <t>Giá trị của ngày cuối cùng trong 1 Tháng hoặc 1 Năm.</t>
+  </si>
+  <si>
+    <t>(D8/D7)*100%</t>
+  </si>
+  <si>
+    <t>SUM(D10,D11)</t>
+  </si>
+  <si>
+    <t>(D12/D7)*100%</t>
+  </si>
+  <si>
+    <t>SUM(D23,D24)</t>
+  </si>
+  <si>
+    <t>ENGAGEMENT RATE (ER)</t>
+  </si>
+  <si>
+    <t>((D10+D11)/D7)*100%</t>
+  </si>
+  <si>
+    <t>% tăng giảm giữa giá trị tháng này với tháng trước, nếu cả năm thì năm này với năm trước, nếu giữa chừng thì là giá trị mới nhất năm đó với cũ nhất năm đó</t>
+  </si>
+  <si>
+    <t>CHECK CT</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,8 +408,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,8 +464,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -604,11 +639,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -660,7 +725,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,6 +774,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,6 +833,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,13 +890,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2387600</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -977,13 +1083,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>853440</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>172720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1142,13 +1248,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2113280</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1527,13 +1633,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1818640</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1673,13 +1779,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>873760</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>40640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1760,13 +1866,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1391920</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2387600</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1813,13 +1919,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1818640</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1865,13 +1971,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>853440</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1915,13 +2021,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>873760</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2229,575 +2335,671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="9" customWidth="1"/>
     <col min="2" max="2" width="36.109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="84.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="87.5546875" customWidth="1"/>
+    <col min="5" max="5" width="89.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>51</v>
-      </c>
       <c r="D1" s="22" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="32"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>36</v>
+      <c r="D3" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>37</v>
+      <c r="C4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>38</v>
+      <c r="C5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="C6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+      <c r="C7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
       <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="C10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="D11" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B13" s="3" t="str">
         <f>B3</f>
         <v>page_fans</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="66" t="str">
+        <f>D3</f>
+        <v>Giá trị của ngày cuối cùng trong 1 Tháng hoặc 1 Năm.</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="C14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="24" t="s">
+      <c r="C15" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="40" t="s">
+      <c r="D16" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="50" t="s">
+      <c r="C26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="D26" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="42"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="42"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="36" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="33"/>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="33"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="32"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="32"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="33"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="32"/>
       <c r="C32"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="32"/>
       <c r="C33"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="B34" s="32"/>
       <c r="C34"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-    </row>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
+      <c r="A44" s="42"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
+      <c r="A45" s="42"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
+      <c r="A46" s="42"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
+      <c r="A47" s="42"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
+      <c r="A48" s="42"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="43"/>
+      <c r="A49" s="42"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="s">
-        <v>95</v>
-      </c>
+      <c r="A50" s="42"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="s">
-        <v>97</v>
+      <c r="A65" s="45" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="46"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="46" t="s">
-        <v>96</v>
+      <c r="A66" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="45"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="45" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C28"/>
+  <mergeCells count="9">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C29"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2809,40 +3011,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2862,132 +3064,132 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/documents/tonghop.xlsx
+++ b/documents/tonghop.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="5184" windowHeight="8172"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5184" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
   <si>
     <t>TOTAL PAGE LIKES</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>bỏ</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -669,11 +675,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -783,6 +820,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,11 +877,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -834,39 +910,56 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,13 +981,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2387600</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
@@ -1081,13 +1174,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>853440</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>172720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1246,13 +1339,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2113280</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
@@ -1631,13 +1724,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>965200</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1818640</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
@@ -1777,13 +1870,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>142240</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>873760</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>40640</xdr:rowOff>
@@ -1864,13 +1957,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1391920</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2387600</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
@@ -1917,13 +2010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1818640</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>142240</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
@@ -1969,13 +2062,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>853440</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
@@ -2019,13 +2112,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>873760</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -2335,671 +2428,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" style="9" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="87.5546875" customWidth="1"/>
-    <col min="5" max="5" width="89.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="1" max="2" width="24" style="9" customWidth="1"/>
+    <col min="3" max="4" width="36.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="64.6640625" customWidth="1"/>
+    <col min="7" max="7" width="89.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="F3" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="F4" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="F5" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="F6" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="G6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="24" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="F7" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="G7" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="8" t="s">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="69"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="74" t="s">
+      <c r="B9" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="G9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="59"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="F10" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="G10" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="D11" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="F11" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="G11" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="58"/>
+      <c r="I11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="str">
-        <f>B3</f>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="str">
+        <f>C3</f>
         <v>page_fans</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="80"/>
+      <c r="E13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="66" t="str">
-        <f>D3</f>
+      <c r="F13" s="51" t="str">
+        <f>F3</f>
         <v>Giá trị của ngày cuối cùng trong 1 Tháng hoặc 1 Năm.</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="83"/>
+      <c r="E14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="F14" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="D15" s="83"/>
+      <c r="E15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="F15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="86"/>
+      <c r="E16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="F16" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="J16" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="D18" s="81"/>
+      <c r="E18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="F18" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="D19" s="82"/>
+      <c r="E19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="F19" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="49"/>
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="F21" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="8" t="s">
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="72"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="82"/>
+      <c r="E22" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="24" t="s">
+      <c r="F22" s="69"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" s="17" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="40"/>
+      <c r="C23" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="F23" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="J23" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="17" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="69" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="69" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="41"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="D26" s="91"/>
+      <c r="E26" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="F26" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="41"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J26" s="41"/>
+    </row>
+    <row r="27" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="69" t="s">
+      <c r="B27" s="94"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="69" t="s">
+      <c r="B28" s="94"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="41"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="41"/>
+    </row>
+    <row r="29" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="73" t="s">
+      <c r="B29" s="95"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="41"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29" s="41"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="96"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="96"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="42"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="96"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="42"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="96"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="42"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="96"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="42"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="96"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="42"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="96"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="42"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="96"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="96"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="45"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="45"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="45"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
         <v>91</v>
       </c>
+      <c r="B70" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E7:E8"/>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3011,7 +3200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -3057,7 +3246,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/tonghop.xlsx
+++ b/documents/tonghop.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5184" windowHeight="8172"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5184" windowHeight="8172" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
   <si>
     <t>TOTAL PAGE LIKES</t>
   </si>
@@ -148,9 +152,6 @@
     <t>Đã lấy</t>
   </si>
   <si>
-    <t>Chưa lấy</t>
-  </si>
-  <si>
     <t>TITLE</t>
   </si>
   <si>
@@ -160,9 +161,6 @@
     <t>TÌNH TRẠNG</t>
   </si>
   <si>
-    <t>? Chưa tìm ra metric</t>
-  </si>
-  <si>
     <t>28 days (month)</t>
   </si>
   <si>
@@ -193,15 +191,6 @@
     <t>post_consumptions_by_type chưa lấy được phải lấy ra với cấu trúc riêng</t>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>lấy riêng</t>
-  </si>
-  <si>
-    <t>Post lấy riêng từng cái đối với 2 metric này</t>
-  </si>
-  <si>
     <t xml:space="preserve">[{'name': 'page_fans_gender_age', 'period': 'day', 'values': [{'value': {'F.13-17': 1, 'F.18-24': 293, 'F.25-34': 420, 'F.35-44': 134, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 254, 'M.25-34': 749, 'M.35-44': 297, 'M.45-54': 55, 'M.55-64': 9, 'M.65+': 9, 'U.18-24': 1, 'U.25-34': 1, 'U.35-44': 3}, 'end_time': '2019-01-12T08:00:00+0000'}, {'value': {'F.13-17': 1, 'F.18-24': 293, 'F.25-34': 420, 'F.35-44': 134, 'F.45-54': 29, 'F.55-64': 5, 'F.65+': 1, 'M.13-17': 3, 'M.18-24': 252, 'M.25-34': 751, 'M.35-44': </t>
   </si>
   <si>
@@ -343,20 +332,86 @@
     <t>CHECK CT</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>bỏ</t>
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>post_click_by_type</t>
+  </si>
+  <si>
+    <t>Nếu filter từng tháng thì giá trị = % tăng giảm giữa giá trị tháng này với tháng trước, nếu filter = nhều tháng hoặc cả năm thì năm này với năm trước</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>1 tháng (đã có data full tháng)</t>
+  </si>
+  <si>
+    <t>1 tháng (data chưa full tháng ví dụ mới tới ngày 12)</t>
+  </si>
+  <si>
+    <t>Đối tượng</t>
+  </si>
+  <si>
+    <t>% tháng chọn (sum tổng giá trị hiện có) so với tháng trước đó (toàn bộ giá trị)</t>
+  </si>
+  <si>
+    <t>Tính</t>
+  </si>
+  <si>
+    <t>&gt; 31 ngày tương ứng chọn nhiều tháng hoặc all(đã có data full tháng)</t>
+  </si>
+  <si>
+    <t>&gt; 31 ngày tương ứng chọn nhiều tháng hoặc all(data chọn trong đó có tháng chưa full ví dụ chọn 1,2,3,4 (tháng 4 có 12 ngày))</t>
+  </si>
+  <si>
+    <t>% tổng các tháng chọn so với tổng các tháng đó năm trước</t>
+  </si>
+  <si>
+    <t>% tháng chọn (sum tổng giá trị hiện có) so với tháng trước đó (tổng giá trị của tháng trước tới cùng thời điểm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% giá trị ngày gần nhất trong các tháng chọn (12/4) so với giá trị ngày cuối cùng của năm trước đó (31/12) </t>
+  </si>
+  <si>
+    <t>% giá trị ngày cuối cùng tháng chọn so với giá trị ngày cuối tháng trước đó</t>
+  </si>
+  <si>
+    <t>% giá trị ngày gần nhất tháng chọn so với giá trị ngày cuối cùng tháng trước đó</t>
+  </si>
+  <si>
+    <t>% tổng giá trị tháng chọn so với tổng giá trị tháng trước đó</t>
+  </si>
+  <si>
+    <t>% các tháng chọn (tổng giá trị đến thời điểm hiện tại) so với tổng giá trị các tháng của năm trước(full)</t>
+  </si>
+  <si>
+    <t>% tổng giá trị các tháng chọn (tới thời điểm hiện tại) so với tổng giá trị cùng thời điểm năm trước (cũng tới 12/4 không full)</t>
+  </si>
+  <si>
+    <t>Công thức</t>
+  </si>
+  <si>
+    <t>% tháng</t>
+  </si>
+  <si>
+    <t>% năm</t>
+  </si>
+  <si>
+    <t>Previousmonth</t>
+  </si>
+  <si>
+    <t>dateadd(date -1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,8 +475,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,25 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,19 +524,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,34 +768,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -741,26 +806,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -771,42 +818,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -835,47 +856,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -884,82 +892,213 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,16 +1313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>853440</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>172720</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>836315</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>181281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>667820</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>143838</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1192,8 +1331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5628640" y="8097520"/>
-          <a:ext cx="1930400" cy="1402080"/>
+          <a:off x="6170315" y="11277371"/>
+          <a:ext cx="1278449" cy="1358130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,14 +2201,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>836314</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>55537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>853440</xdr:colOff>
+      <xdr:colOff>507999</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
@@ -2082,12 +2221,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4632960" y="8798560"/>
-          <a:ext cx="345440" cy="1838960"/>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="6170314" y="11956436"/>
+          <a:ext cx="1118629" cy="2181718"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20436"/>
+            <a:gd name="adj2" fmla="val 65563"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2430,323 +2572,336 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24" style="9" customWidth="1"/>
-    <col min="3" max="4" width="36.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="64.6640625" customWidth="1"/>
-    <col min="7" max="7" width="89.33203125" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+    <col min="7" max="7" width="67.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="30" t="s">
+      <c r="J1" s="91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="77" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="99" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="61" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="1:10" s="61" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="63"/>
+      <c r="I6" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="1:10" s="118" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G7" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="115"/>
+      <c r="I7" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="122"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="125"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:10" s="99" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="107"/>
+      <c r="E10" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="97"/>
+      <c r="I10" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="61" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="G11" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="60"/>
+    </row>
+    <row r="12" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="str">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="str">
         <f>C3</f>
         <v>page_fans</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="51" t="str">
+      <c r="F13" s="28" t="str">
         <f>F3</f>
         <v>Giá trị của ngày cuối cùng trong 1 Tháng hoặc 1 Năm.</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2756,19 +2911,19 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="52" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -2778,417 +2933,415 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" s="71" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="1:10" s="77" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="76"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="1:10" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:10" s="77" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:10" s="71" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10" s="71" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" s="71" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" s="17" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" s="17" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="17" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="41"/>
-    </row>
-    <row r="25" spans="1:10" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="41"/>
-    </row>
-    <row r="26" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="41"/>
-    </row>
-    <row r="27" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="41"/>
-    </row>
-    <row r="29" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="41"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="96"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="38"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="96"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="38"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="38"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="38"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="38"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="96"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="38"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="96"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="38"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="38"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="38"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="45"/>
+      <c r="A65" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="22"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="45"/>
+      <c r="A66" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="22"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="45"/>
+      <c r="A70" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3208,32 +3361,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3253,135 +3406,352 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="96.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/tonghop.xlsx
+++ b/documents/tonghop.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
   <si>
     <t>TOTAL PAGE LIKES</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>dateadd(date -1)</t>
+  </si>
+  <si>
+    <t>Dufg previous month có .date</t>
   </si>
 </sst>
 </file>
@@ -876,45 +879,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1052,51 +1022,84 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2613,183 +2616,183 @@
       <c r="I1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="80" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="77" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:10" s="66" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="76"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="93" t="s">
         <v>91</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="94" t="s">
         <v>46</v>
       </c>
       <c r="J3" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="99" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+    <row r="4" spans="1:10" s="88" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98" t="s">
+      <c r="H4" s="86"/>
+      <c r="I4" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="61" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:10" s="50" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="89" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:10" s="61" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:10" s="50" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="89" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="60"/>
-    </row>
-    <row r="7" spans="1:10" s="118" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109" t="s">
+      <c r="J6" s="49"/>
+    </row>
+    <row r="7" spans="1:10" s="103" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="107">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="119"/>
       <c r="B8" s="119"/>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="116" t="s">
+      <c r="F8" s="115"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="125"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
@@ -2808,76 +2811,76 @@
         <v>28</v>
       </c>
       <c r="H9" s="33"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="46"/>
-    </row>
-    <row r="10" spans="1:10" s="99" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106" t="s">
+      <c r="I9" s="77"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" s="88" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="95" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="86"/>
+      <c r="I10" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="97">
+      <c r="J10" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="61" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:10" s="50" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="89" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="60"/>
-    </row>
-    <row r="12" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="76"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -2898,10 +2901,10 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="88" t="s">
+      <c r="I13" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="46"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -2920,12 +2923,12 @@
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2942,46 +2945,46 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:10" s="71" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" s="60" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="70"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="90" t="s">
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="46"/>
-    </row>
-    <row r="17" spans="1:10" s="77" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="83" t="s">
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="76"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -2991,7 +2994,7 @@
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="53"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="15" t="s">
         <v>45</v>
       </c>
@@ -3000,10 +3003,10 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="88" t="s">
+      <c r="I18" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="46"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
@@ -3013,7 +3016,7 @@
       <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="13" t="s">
         <v>45</v>
       </c>
@@ -3022,198 +3025,198 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="88" t="s">
+      <c r="I19" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:10" s="77" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="76"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="120" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="116" t="s">
         <v>95</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
-      <c r="I21" s="88" t="s">
+      <c r="I21" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="46"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="27"/>
       <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="53"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="117"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="88" t="s">
+      <c r="I22" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" spans="1:10" s="71" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" s="60" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="45" t="s">
+      <c r="D23" s="61"/>
+      <c r="E23" s="111" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="90" t="s">
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="46"/>
-    </row>
-    <row r="24" spans="1:10" s="71" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" s="60" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="49"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="90" t="s">
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="46"/>
-    </row>
-    <row r="25" spans="1:10" s="71" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" s="60" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="52"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="90" t="s">
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="46"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="45" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="111" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="88" t="s">
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="46"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="49"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="88" t="s">
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="46"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="49"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="112"/>
       <c r="F28" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="88" t="s">
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="46"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="52"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="88" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="46"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" s="17"/>
@@ -3331,17 +3334,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3541,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3750,6 +3753,11 @@
         <v>122</v>
       </c>
     </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
